--- a/Code/Results/Cases/Case_4_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.658256287752636</v>
+        <v>1.231415721352562</v>
       </c>
       <c r="C2">
-        <v>1.004485800897271</v>
+        <v>0.31266005797562</v>
       </c>
       <c r="D2">
-        <v>0.2077410507415749</v>
+        <v>0.0792997928117245</v>
       </c>
       <c r="E2">
-        <v>1.447177048112849</v>
+        <v>0.4210711681848807</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007662851194921765</v>
+        <v>0.002393885002521618</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.199197504103211</v>
+        <v>2.150681531974698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.17165987179601</v>
+        <v>1.086345546104383</v>
       </c>
       <c r="C3">
-        <v>0.8777438689737096</v>
+        <v>0.2732052880114111</v>
       </c>
       <c r="D3">
-        <v>0.179419250223205</v>
+        <v>0.07181007949643003</v>
       </c>
       <c r="E3">
-        <v>1.23786093589672</v>
+        <v>0.3671310163277752</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007729656483925702</v>
+        <v>0.002397947023809593</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.978529846317059</v>
+        <v>2.131775290707424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.87484559965759</v>
+        <v>0.9972292380033423</v>
       </c>
       <c r="C4">
-        <v>0.8003030684228634</v>
+        <v>0.248887350652609</v>
       </c>
       <c r="D4">
-        <v>0.1622988428029544</v>
+        <v>0.06725008652669828</v>
       </c>
       <c r="E4">
-        <v>1.112473026855938</v>
+        <v>0.3341271889903936</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007771654454524972</v>
+        <v>0.002400568940967025</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.852531214442592</v>
+        <v>2.122666070498553</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754280562559586</v>
+        <v>0.9609034933564544</v>
       </c>
       <c r="C5">
-        <v>0.768815420118699</v>
+        <v>0.2389545559492774</v>
       </c>
       <c r="D5">
-        <v>0.1553805747085022</v>
+        <v>0.06540147747342928</v>
       </c>
       <c r="E5">
-        <v>1.062038790656743</v>
+        <v>0.32070449458773</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007789029416281273</v>
+        <v>0.002401669647512616</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.803339995473067</v>
+        <v>2.119577385641009</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734281495624884</v>
+        <v>0.9548710381549768</v>
       </c>
       <c r="C6">
-        <v>0.7635904611760509</v>
+        <v>0.2373038387319752</v>
       </c>
       <c r="D6">
-        <v>0.1542350738234717</v>
+        <v>0.06509509545070102</v>
       </c>
       <c r="E6">
-        <v>1.053700806086923</v>
+        <v>0.3184772039549415</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007791930638691111</v>
+        <v>0.002401854370366179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.795295514139013</v>
+        <v>2.119102015425625</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.873218171220287</v>
+        <v>0.9967393764796952</v>
       </c>
       <c r="C7">
-        <v>0.7998781627810274</v>
+        <v>0.2487534864617089</v>
       </c>
       <c r="D7">
-        <v>0.1622053157342975</v>
+        <v>0.06722511671141262</v>
       </c>
       <c r="E7">
-        <v>1.111790327639198</v>
+        <v>0.3339460611963432</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007771887706989817</v>
+        <v>0.002400583654784756</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.851859375080494</v>
+        <v>2.122621898043462</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.490006292520548</v>
+        <v>1.181404672473377</v>
       </c>
       <c r="C8">
-        <v>0.9606904561644001</v>
+        <v>0.2990753867852902</v>
       </c>
       <c r="D8">
-        <v>0.1979139695765468</v>
+        <v>0.07670923311877687</v>
       </c>
       <c r="E8">
-        <v>1.374274753903691</v>
+        <v>0.4024471079228107</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007685691362922203</v>
+        <v>0.002395259126405013</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.120994679702704</v>
+        <v>2.143640864449338</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.720298580695271</v>
+        <v>1.543188713654047</v>
       </c>
       <c r="C9">
-        <v>1.28034424397498</v>
+        <v>0.3970172172007551</v>
       </c>
       <c r="D9">
-        <v>0.2705394739023035</v>
+        <v>0.09562085764689243</v>
       </c>
       <c r="E9">
-        <v>1.920334129782674</v>
+        <v>0.5378121374655933</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007523716001512034</v>
+        <v>0.002385826775525977</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.735758495839889</v>
+        <v>2.204924301221354</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.645165810325182</v>
+        <v>1.808804166832942</v>
       </c>
       <c r="C10">
-        <v>1.519881762556622</v>
+        <v>0.4685257348454002</v>
       </c>
       <c r="D10">
-        <v>0.3262089799356147</v>
+        <v>0.1097161047633506</v>
       </c>
       <c r="E10">
-        <v>2.351142218469249</v>
+        <v>0.6380675335471295</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007407886799019919</v>
+        <v>0.002379504705924882</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.258838533641608</v>
+        <v>2.262514896549391</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.072633878114686</v>
+        <v>1.929606308001439</v>
       </c>
       <c r="C11">
-        <v>1.630415815911931</v>
+        <v>0.5009602504061945</v>
       </c>
       <c r="D11">
-        <v>0.3522233698395496</v>
+        <v>0.1161742561311456</v>
       </c>
       <c r="E11">
-        <v>2.556433983076772</v>
+        <v>0.6838887419247186</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007355587647292448</v>
+        <v>0.002376759074711203</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.51712112001178</v>
+        <v>2.291515586040532</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.235684076463997</v>
+        <v>1.975347023833137</v>
       </c>
       <c r="C12">
-        <v>1.672550619407446</v>
+        <v>0.5132286276538025</v>
       </c>
       <c r="D12">
-        <v>0.3621915386091388</v>
+        <v>0.1186265792390202</v>
       </c>
       <c r="E12">
-        <v>2.635804555881734</v>
+        <v>0.7012738501878033</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007335810939485035</v>
+        <v>0.002375737995295387</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.618321851405142</v>
+        <v>2.302906177714021</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.200512303788003</v>
+        <v>1.965496146150826</v>
       </c>
       <c r="C13">
-        <v>1.663462850415613</v>
+        <v>0.5105870329843469</v>
       </c>
       <c r="D13">
-        <v>0.3600391973927515</v>
+        <v>0.1180981248624136</v>
       </c>
       <c r="E13">
-        <v>2.618632926619142</v>
+        <v>0.6975281167607363</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007340069469214865</v>
+        <v>0.002375957076098406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.59636722121661</v>
+        <v>2.300434743965411</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.086023223053644</v>
+        <v>1.933369515497361</v>
       </c>
       <c r="C14">
-        <v>1.633876371344229</v>
+        <v>0.5019698562451822</v>
       </c>
       <c r="D14">
-        <v>0.3530409996446906</v>
+        <v>0.1163758739998713</v>
       </c>
       <c r="E14">
-        <v>2.562929300146621</v>
+        <v>0.6853183356484607</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007353960226357811</v>
+        <v>0.002376674697048067</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.525375980118042</v>
+        <v>2.292444474084789</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.016055355880781</v>
+        <v>1.913690436597506</v>
       </c>
       <c r="C15">
-        <v>1.615791692199991</v>
+        <v>0.4966897747545431</v>
       </c>
       <c r="D15">
-        <v>0.3487702202059069</v>
+        <v>0.11532182987753</v>
       </c>
       <c r="E15">
-        <v>2.529031181323774</v>
+        <v>0.6778439520548005</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000736247142205246</v>
+        <v>0.002377116683901737</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.482349064309062</v>
+        <v>2.287603591694221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.617382532841702</v>
+        <v>1.800908866074451</v>
       </c>
       <c r="C16">
-        <v>1.512693959586159</v>
+        <v>0.4664041325926291</v>
       </c>
       <c r="D16">
-        <v>0.3245242369029882</v>
+        <v>0.1092949887043915</v>
       </c>
       <c r="E16">
-        <v>2.337937120989835</v>
+        <v>0.6350775618046498</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007411310216958981</v>
+        <v>0.002379686752536204</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.242406996848104</v>
+        <v>2.260676509533965</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.374675259170431</v>
+        <v>1.731713600478486</v>
       </c>
       <c r="C17">
-        <v>1.449883291916706</v>
+        <v>0.4478003764239133</v>
       </c>
       <c r="D17">
-        <v>0.3098388295100136</v>
+        <v>0.1056096257586603</v>
       </c>
       <c r="E17">
-        <v>2.223284641930562</v>
+        <v>0.6088986639848741</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007441352645238319</v>
+        <v>0.00238129670563548</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.100731791686741</v>
+        <v>2.244879412346421</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.235696939815909</v>
+        <v>1.691911734284304</v>
       </c>
       <c r="C18">
-        <v>1.413900203825222</v>
+        <v>0.4370910506516452</v>
       </c>
       <c r="D18">
-        <v>0.3014559246614112</v>
+        <v>0.1034942390121074</v>
       </c>
       <c r="E18">
-        <v>2.158196153238222</v>
+        <v>0.5938612787813611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000745867109988585</v>
+        <v>0.002382234979788499</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.021125686477916</v>
+        <v>2.236056777236826</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.188741968518457</v>
+        <v>1.678435077972438</v>
       </c>
       <c r="C19">
-        <v>1.401740192428917</v>
+        <v>0.4334635282927479</v>
       </c>
       <c r="D19">
-        <v>0.2986280604213931</v>
+        <v>0.1027787464475693</v>
       </c>
       <c r="E19">
-        <v>2.136297362335583</v>
+        <v>0.5887732342775109</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007464542304891135</v>
+        <v>0.00238255477438737</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.994482350178345</v>
+        <v>2.233114657968969</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.400446231242086</v>
+        <v>1.739079825048179</v>
       </c>
       <c r="C20">
-        <v>1.456554340319371</v>
+        <v>0.4497817044778003</v>
       </c>
       <c r="D20">
-        <v>0.3113953961330651</v>
+        <v>0.1060014892192953</v>
       </c>
       <c r="E20">
-        <v>2.235398991592049</v>
+        <v>0.6116833599679126</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007438150750955493</v>
+        <v>0.002381124054121758</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.115615411374222</v>
+        <v>2.246533734657731</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.11961768320856</v>
+        <v>1.942806009375033</v>
       </c>
       <c r="C21">
-        <v>1.6425586351682</v>
+        <v>0.5045013078747047</v>
       </c>
       <c r="D21">
-        <v>0.3550932080064229</v>
+        <v>0.1168815563230368</v>
       </c>
       <c r="E21">
-        <v>2.579243952090025</v>
+        <v>0.6889037099066115</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007349879667616711</v>
+        <v>0.002376463409612306</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.546131591856636</v>
+        <v>2.294780273712036</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.596619281167818</v>
+        <v>2.075926832446669</v>
       </c>
       <c r="C22">
-        <v>1.765773764734149</v>
+        <v>0.5401828059275431</v>
       </c>
       <c r="D22">
-        <v>0.3843448240636036</v>
+        <v>0.1240317786553504</v>
       </c>
       <c r="E22">
-        <v>2.81364946070974</v>
+        <v>0.7395688968093879</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007292335193506417</v>
+        <v>0.002373525958637803</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.847557946835479</v>
+        <v>2.328696820530354</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.341318945307023</v>
+        <v>2.004880261455639</v>
       </c>
       <c r="C23">
-        <v>1.699840977839699</v>
+        <v>0.5211463855555394</v>
       </c>
       <c r="D23">
-        <v>0.3686627626255046</v>
+        <v>0.1202119172783114</v>
       </c>
       <c r="E23">
-        <v>2.687546027406029</v>
+        <v>0.712508962967803</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007323045023330428</v>
+        <v>0.002375083834333189</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.684670867960449</v>
+        <v>2.31037484118508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.388793454135964</v>
+        <v>1.735749619014484</v>
       </c>
       <c r="C24">
-        <v>1.453537965751309</v>
+        <v>0.4488859889722789</v>
       </c>
       <c r="D24">
-        <v>0.3106914870067357</v>
+        <v>0.1058243172401205</v>
       </c>
       <c r="E24">
-        <v>2.229919540241085</v>
+        <v>0.6104243579993494</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007439598179712625</v>
+        <v>0.002381202070183441</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.10888081527699</v>
+        <v>2.245785008185265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.384450765914437</v>
+        <v>1.445351244785058</v>
       </c>
       <c r="C25">
-        <v>1.193211458448275</v>
+        <v>0.3706004182140532</v>
       </c>
       <c r="D25">
-        <v>0.2505438642470921</v>
+        <v>0.09047020645515147</v>
       </c>
       <c r="E25">
-        <v>1.768265364438463</v>
+        <v>0.5010639066571798</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007566887440951173</v>
+        <v>0.002388271203781306</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.558373989244529</v>
+        <v>2.186163050303662</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.231415721352562</v>
+        <v>3.658256287752636</v>
       </c>
       <c r="C2">
-        <v>0.31266005797562</v>
+        <v>1.004485800897186</v>
       </c>
       <c r="D2">
-        <v>0.0792997928117245</v>
+        <v>0.2077410507413617</v>
       </c>
       <c r="E2">
-        <v>0.4210711681848807</v>
+        <v>1.447177048112891</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002393885002521618</v>
+        <v>0.0007662851195500352</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.150681531974698</v>
+        <v>2.199197504103154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.086345546104383</v>
+        <v>3.17165987179601</v>
       </c>
       <c r="C3">
-        <v>0.2732052880114111</v>
+        <v>0.8777438689737096</v>
       </c>
       <c r="D3">
-        <v>0.07181007949643003</v>
+        <v>0.1794192502233329</v>
       </c>
       <c r="E3">
-        <v>0.3671310163277752</v>
+        <v>1.237860935896705</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002397947023809593</v>
+        <v>0.0007729656483942536</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.131775290707424</v>
+        <v>1.978529846316945</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9972292380033423</v>
+        <v>2.874845599657704</v>
       </c>
       <c r="C4">
-        <v>0.248887350652609</v>
+        <v>0.8003030684226928</v>
       </c>
       <c r="D4">
-        <v>0.06725008652669828</v>
+        <v>0.1622988428031533</v>
       </c>
       <c r="E4">
-        <v>0.3341271889903936</v>
+        <v>1.112473026855895</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002400568940967025</v>
+        <v>0.0007771654455094271</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.122666070498553</v>
+        <v>1.852531214442479</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9609034933564544</v>
+        <v>2.7542805625597</v>
       </c>
       <c r="C5">
-        <v>0.2389545559492774</v>
+        <v>0.7688154201187558</v>
       </c>
       <c r="D5">
-        <v>0.06540147747342928</v>
+        <v>0.1553805747086727</v>
       </c>
       <c r="E5">
-        <v>0.32070449458773</v>
+        <v>1.062038790656786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002401669647512616</v>
+        <v>0.000778902941657605</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.119577385641009</v>
+        <v>1.803339995473038</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9548710381549768</v>
+        <v>2.734281495624771</v>
       </c>
       <c r="C6">
-        <v>0.2373038387319752</v>
+        <v>0.7635904611757951</v>
       </c>
       <c r="D6">
-        <v>0.06509509545070102</v>
+        <v>0.154235073823358</v>
       </c>
       <c r="E6">
-        <v>0.3184772039549415</v>
+        <v>1.053700806086937</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002401854370366179</v>
+        <v>0.0007791930638972422</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.119102015425625</v>
+        <v>1.795295514139013</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9967393764796952</v>
+        <v>2.873218171220117</v>
       </c>
       <c r="C7">
-        <v>0.2487534864617089</v>
+        <v>0.7998781627809137</v>
       </c>
       <c r="D7">
-        <v>0.06722511671141262</v>
+        <v>0.1622053157341981</v>
       </c>
       <c r="E7">
-        <v>0.3339460611963432</v>
+        <v>1.11179032763917</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002400583654784756</v>
+        <v>0.0007771887707279101</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.122621898043462</v>
+        <v>1.851859375080522</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.181404672473377</v>
+        <v>3.490006292520661</v>
       </c>
       <c r="C8">
-        <v>0.2990753867852902</v>
+        <v>0.9606904561643717</v>
       </c>
       <c r="D8">
-        <v>0.07670923311877687</v>
+        <v>0.1979139695765895</v>
       </c>
       <c r="E8">
-        <v>0.4024471079228107</v>
+        <v>1.374274753903663</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002395259126405013</v>
+        <v>0.0007685691362630656</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.143640864449338</v>
+        <v>2.120994679702704</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.543188713654047</v>
+        <v>4.720298580695101</v>
       </c>
       <c r="C9">
-        <v>0.3970172172007551</v>
+        <v>1.280344243974923</v>
       </c>
       <c r="D9">
-        <v>0.09562085764689243</v>
+        <v>0.2705394739020335</v>
       </c>
       <c r="E9">
-        <v>0.5378121374655933</v>
+        <v>1.920334129782646</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002385826775525977</v>
+        <v>0.0007523716000629962</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.204924301221354</v>
+        <v>2.735758495839917</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.808804166832942</v>
+        <v>5.645165810325011</v>
       </c>
       <c r="C10">
-        <v>0.4685257348454002</v>
+        <v>1.519881762556622</v>
       </c>
       <c r="D10">
-        <v>0.1097161047633506</v>
+        <v>0.3262089799355721</v>
       </c>
       <c r="E10">
-        <v>0.6380675335471295</v>
+        <v>2.351142218469164</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002379504705924882</v>
+        <v>0.0007407886798761201</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.262514896549391</v>
+        <v>3.258838533641551</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.929606308001439</v>
+        <v>6.07263387811463</v>
       </c>
       <c r="C11">
-        <v>0.5009602504061945</v>
+        <v>1.630415815911931</v>
       </c>
       <c r="D11">
-        <v>0.1161742561311456</v>
+        <v>0.3522233698394359</v>
       </c>
       <c r="E11">
-        <v>0.6838887419247186</v>
+        <v>2.556433983076744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002376759074711203</v>
+        <v>0.0007355587647205342</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.291515586040532</v>
+        <v>3.51712112001178</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.975347023833137</v>
+        <v>6.23568407646394</v>
       </c>
       <c r="C12">
-        <v>0.5132286276538025</v>
+        <v>1.672550619407048</v>
       </c>
       <c r="D12">
-        <v>0.1186265792390202</v>
+        <v>0.362191538609224</v>
       </c>
       <c r="E12">
-        <v>0.7012738501878033</v>
+        <v>2.635804555881734</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002375737995295387</v>
+        <v>0.0007335810939206562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.302906177714021</v>
+        <v>3.618321851405142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.965496146150826</v>
+        <v>6.200512303788116</v>
       </c>
       <c r="C13">
-        <v>0.5105870329843469</v>
+        <v>1.66346285041584</v>
       </c>
       <c r="D13">
-        <v>0.1180981248624136</v>
+        <v>0.3600391973929078</v>
       </c>
       <c r="E13">
-        <v>0.6975281167607363</v>
+        <v>2.618632926619171</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002375957076098406</v>
+        <v>0.0007340069470126378</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.300434743965411</v>
+        <v>3.596367221216667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.933369515497361</v>
+        <v>6.086023223053701</v>
       </c>
       <c r="C14">
-        <v>0.5019698562451822</v>
+        <v>1.633876371344115</v>
       </c>
       <c r="D14">
-        <v>0.1163758739998713</v>
+        <v>0.3530409996446622</v>
       </c>
       <c r="E14">
-        <v>0.6853183356484607</v>
+        <v>2.562929300146649</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002376674697048067</v>
+        <v>0.0007353960226423641</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.292444474084789</v>
+        <v>3.525375980118213</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.913690436597506</v>
+        <v>6.016055355880837</v>
       </c>
       <c r="C15">
-        <v>0.4966897747545431</v>
+        <v>1.615791692199934</v>
       </c>
       <c r="D15">
-        <v>0.11532182987753</v>
+        <v>0.3487702202060774</v>
       </c>
       <c r="E15">
-        <v>0.6778439520548005</v>
+        <v>2.529031181323759</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002377116683901737</v>
+        <v>0.000736247142226658</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.287603591694221</v>
+        <v>3.482349064309005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.800908866074451</v>
+        <v>5.617382532841646</v>
       </c>
       <c r="C16">
-        <v>0.4664041325926291</v>
+        <v>1.512693959586102</v>
       </c>
       <c r="D16">
-        <v>0.1092949887043915</v>
+        <v>0.3245242369028887</v>
       </c>
       <c r="E16">
-        <v>0.6350775618046498</v>
+        <v>2.337937120989835</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002379686752536204</v>
+        <v>0.0007411310216320262</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.260676509533965</v>
+        <v>3.242406996848104</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731713600478486</v>
+        <v>5.374675259170431</v>
       </c>
       <c r="C17">
-        <v>0.4478003764239133</v>
+        <v>1.449883291916592</v>
       </c>
       <c r="D17">
-        <v>0.1056096257586603</v>
+        <v>0.3098388295100278</v>
       </c>
       <c r="E17">
-        <v>0.6088986639848741</v>
+        <v>2.223284641930519</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00238129670563548</v>
+        <v>0.0007441352645242354</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.244879412346421</v>
+        <v>3.100731791686655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.691911734284304</v>
+        <v>5.235696939815966</v>
       </c>
       <c r="C18">
-        <v>0.4370910506516452</v>
+        <v>1.413900203825051</v>
       </c>
       <c r="D18">
-        <v>0.1034942390121074</v>
+        <v>0.3014559246615107</v>
       </c>
       <c r="E18">
-        <v>0.5938612787813611</v>
+        <v>2.158196153238208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002382234979788499</v>
+        <v>0.0007458671099549656</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.236056777236826</v>
+        <v>3.021125686477831</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.678435077972438</v>
+        <v>5.188741968518457</v>
       </c>
       <c r="C19">
-        <v>0.4334635282927479</v>
+        <v>1.401740192428917</v>
       </c>
       <c r="D19">
-        <v>0.1027787464475693</v>
+        <v>0.2986280604216063</v>
       </c>
       <c r="E19">
-        <v>0.5887732342775109</v>
+        <v>2.136297362335611</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00238255477438737</v>
+        <v>0.000746454230516425</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.233114657968969</v>
+        <v>2.994482350178373</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.739079825048179</v>
+        <v>5.400446231241915</v>
       </c>
       <c r="C20">
-        <v>0.4497817044778003</v>
+        <v>1.456554340319371</v>
       </c>
       <c r="D20">
-        <v>0.1060014892192953</v>
+        <v>0.3113953961328662</v>
       </c>
       <c r="E20">
-        <v>0.6116833599679126</v>
+        <v>2.235398991592064</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002381124054121758</v>
+        <v>0.0007438150750966877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.246533734657731</v>
+        <v>3.115615411374222</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.942806009375033</v>
+        <v>6.119617683208673</v>
       </c>
       <c r="C21">
-        <v>0.5045013078747047</v>
+        <v>1.642558635168029</v>
       </c>
       <c r="D21">
-        <v>0.1168815563230368</v>
+        <v>0.3550932080064229</v>
       </c>
       <c r="E21">
-        <v>0.6889037099066115</v>
+        <v>2.57924395209001</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002376463409612306</v>
+        <v>0.0007349879667615796</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.294780273712036</v>
+        <v>3.546131591856579</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.075926832446669</v>
+        <v>6.596619281167591</v>
       </c>
       <c r="C22">
-        <v>0.5401828059275431</v>
+        <v>1.765773764733979</v>
       </c>
       <c r="D22">
-        <v>0.1240317786553504</v>
+        <v>0.3843448240638025</v>
       </c>
       <c r="E22">
-        <v>0.7395688968093879</v>
+        <v>2.81364946070974</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002373525958637803</v>
+        <v>0.0007292335192954358</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.328696820530354</v>
+        <v>3.847557946835479</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.004880261455639</v>
+        <v>6.34131894530708</v>
       </c>
       <c r="C23">
-        <v>0.5211463855555394</v>
+        <v>1.699840977839699</v>
       </c>
       <c r="D23">
-        <v>0.1202119172783114</v>
+        <v>0.3686627626257035</v>
       </c>
       <c r="E23">
-        <v>0.712508962967803</v>
+        <v>2.687546027406015</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002375083834333189</v>
+        <v>0.0007323045023613182</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.31037484118508</v>
+        <v>3.684670867960449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735749619014484</v>
+        <v>5.388793454136021</v>
       </c>
       <c r="C24">
-        <v>0.4488859889722789</v>
+        <v>1.45353796575148</v>
       </c>
       <c r="D24">
-        <v>0.1058243172401205</v>
+        <v>0.3106914870064799</v>
       </c>
       <c r="E24">
-        <v>0.6104243579993494</v>
+        <v>2.22991954024107</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002381202070183441</v>
+        <v>0.0007439598179720779</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.245785008185265</v>
+        <v>3.108880815276933</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.445351244785058</v>
+        <v>4.384450765914437</v>
       </c>
       <c r="C25">
-        <v>0.3706004182140532</v>
+        <v>1.193211458448332</v>
       </c>
       <c r="D25">
-        <v>0.09047020645515147</v>
+        <v>0.2505438642471489</v>
       </c>
       <c r="E25">
-        <v>0.5010639066571798</v>
+        <v>1.768265364438449</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002388271203781306</v>
+        <v>0.0007566887440945971</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.186163050303662</v>
+        <v>2.558373989244529</v>
       </c>
     </row>
   </sheetData>
